--- a/Model/richmond/bcs/catchment/darcy.xlsx
+++ b/Model/richmond/bcs/catchment/darcy.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/Local/lake-richmond/Model/richmond/bcs/catchment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAFA85-1B62-CD4E-90FA-FF0D736BC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125660F-715F-AC40-9680-7C6980003F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27340" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{DED68972-9CAD-F043-87FF-7AA9FF438215}"/>
+    <workbookView xWindow="23560" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{DED68972-9CAD-F043-87FF-7AA9FF438215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,7 +133,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +471,7 @@
   <dimension ref="A8:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="C18">
         <f>(C11*(C12/C13)*C16)</f>
-        <v>0.69299999999999995</v>
+        <v>69.3</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -587,7 +587,7 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <f>C18/86400</f>
-        <v>8.0208333333333329E-6</v>
+        <v>8.0208333333333325E-4</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>

--- a/Model/richmond/bcs/catchment/darcy.xlsx
+++ b/Model/richmond/bcs/catchment/darcy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/Local/lake-richmond/Model/richmond/bcs/catchment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125660F-715F-AC40-9680-7C6980003F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96039E-4326-5541-B61C-91AC990363B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23560" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{DED68972-9CAD-F043-87FF-7AA9FF438215}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,7 +133,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +471,7 @@
   <dimension ref="A8:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
